--- a/doc/飞狐数据格式.xlsx
+++ b/doc/飞狐数据格式.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/StockDataConvert/各种格式/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ai1/Documents/GitHub/StockDataConvert/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF4FC6-83C8-FE4E-BD1B-E07ACAABF34F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B667BA2-B21A-F546-B226-D8065AB9D45D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="28240" windowHeight="13440" activeTab="1" xr2:uid="{BB6F29CB-DB88-F541-BD27-673F2C9D3443}"/>
+    <workbookView xWindow="2060" yWindow="3180" windowWidth="20860" windowHeight="10820" activeTab="2" xr2:uid="{BB6F29CB-DB88-F541-BD27-673F2C9D3443}"/>
   </bookViews>
   <sheets>
     <sheet name="格式" sheetId="1" r:id="rId1"/>
     <sheet name="java代码" sheetId="2" r:id="rId2"/>
+    <sheet name="UTCtime" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>e2ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +174,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chat[12]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,20 +391,93 @@
     <t xml:space="preserve">        Float f=13.0f; </t>
   </si>
   <si>
-    <t xml:space="preserve">        System.out.println(Integer.toHexString(Float.floatToIntBits(f))); </t>
-  </si>
-  <si>
     <t xml:space="preserve">    }</t>
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>char[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.util.Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.out.println(Integer.toHexString(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Float.floatToIntBits(f))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FF7F0055"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.getTime() / 1000)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,6 +519,76 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF007020"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF666600"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF902000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF902000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF7F0055"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -590,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +789,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,13 +1131,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28E6AC4-EBDD-834A-9043-A3A84BACDC51}">
   <dimension ref="B3:AK22"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A2" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:37">
@@ -987,10 +1152,10 @@
         <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>35</v>
@@ -999,22 +1164,22 @@
         <v>35</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>34</v>
@@ -1153,163 +1318,163 @@
         <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="18">
       <c r="N6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:37">
       <c r="AH7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:37">
       <c r="X8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:37">
       <c r="X9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:37">
       <c r="X10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:37">
       <c r="X11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:37">
       <c r="X12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:37">
       <c r="X13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:37">
       <c r="X14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:37">
       <c r="X16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="24:29" ht="20">
       <c r="Z17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="24:29">
       <c r="Z18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="24:29" ht="18">
       <c r="X20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="24:29" ht="18">
       <c r="Z21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="24:29" ht="18">
       <c r="Z22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD18155-0104-DB4F-9523-BD7BE28DDAEC}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1331,7 +1496,7 @@
     <row r="3" spans="2:9" ht="17" thickBot="1"/>
     <row r="4" spans="2:9">
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1353,7 +1518,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1365,7 +1530,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1377,7 +1542,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1389,7 +1554,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1401,7 +1566,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1413,7 +1578,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1435,7 +1600,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1445,9 +1610,9 @@
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" ht="26">
       <c r="B14" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1459,7 +1624,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1471,7 +1636,7 @@
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1">
       <c r="B16" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1485,4 +1650,81 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B3E7B-2533-FD42-A1EF-AB9981AC8FAE}">
+  <dimension ref="B4:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="2:2" ht="35">
+      <c r="B4" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="24">
+      <c r="B7" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18">
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="2:2" ht="18">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="2:2" ht="18">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="2:2" ht="18">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="2:2" ht="18">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="2:2" ht="18">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="2:2" ht="18">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="2:2" ht="18">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="2:2" ht="18">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:2" ht="18">
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="2:2" ht="30">
+      <c r="B18" s="25"/>
+    </row>
+    <row r="19" spans="2:2" ht="30">
+      <c r="B19" s="26"/>
+    </row>
+    <row r="20" spans="2:2" ht="18">
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="2:2" ht="18">
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="2:2" ht="18">
+      <c r="B22" s="22"/>
+    </row>
+    <row r="23" spans="2:2" ht="18">
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="2:2" ht="18">
+      <c r="B24" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/飞狐数据格式.xlsx
+++ b/doc/飞狐数据格式.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ai1/Documents/GitHub/StockDataConvert/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanhao\Documents\GitHub\StockDataConvert\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B667BA2-B21A-F546-B226-D8065AB9D45D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE092CE-347E-4A38-A286-59A7EC0C2F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="3180" windowWidth="20860" windowHeight="10820" activeTab="2" xr2:uid="{BB6F29CB-DB88-F541-BD27-673F2C9D3443}"/>
+    <workbookView xWindow="4845" yWindow="5745" windowWidth="20940" windowHeight="12450" activeTab="1" xr2:uid="{BB6F29CB-DB88-F541-BD27-673F2C9D3443}"/>
   </bookViews>
   <sheets>
-    <sheet name="格式" sheetId="1" r:id="rId1"/>
-    <sheet name="java代码" sheetId="2" r:id="rId2"/>
-    <sheet name="UTCtime" sheetId="3" r:id="rId3"/>
+    <sheet name="飞狐格式" sheetId="1" r:id="rId1"/>
+    <sheet name="通达信格式" sheetId="4" r:id="rId2"/>
+    <sheet name="java代码" sheetId="2" r:id="rId3"/>
+    <sheet name="UTCtime" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>e2ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,10 +283,6 @@
   </si>
   <si>
     <t>单精度浮点数转十进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十进制转单精度浮点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,7 +418,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -472,23 +469,202 @@
       <t>.getTime() / 1000)</t>
     </r>
   </si>
+  <si>
+    <t>688a 3401 da05 0000 1806 0000 d605 0000 0e06 0000 3037 c14d 1b5a 9301 0000 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0134388a</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <r>
+      <t>十六</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制</t>
+    </r>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>十进制</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05da</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05d6</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 060e</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01931b5a</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <r>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精度浮点数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tooltt.com/floatconverter/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4dc13037</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>成交额</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>十六转十</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>收盘价</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>最低价</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>最高价</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>开盘价</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>https://www.sojson.com/hexconvert/16to10.html</t>
+  </si>
+  <si>
+    <t>9690 3201 6810 0000 0019 0000 ad0d 0000 3011 0000 175f 7a4e f23c 6801 4c09 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4e7a5f17</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>成交量</t>
+    <phoneticPr fontId="17"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,7 +672,7 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -524,7 +700,7 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,6 +766,36 @@
       <color rgb="FFFF00FF"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -730,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,11 +1019,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,8 +1047,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447844</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5685E514-B712-6628-9CD2-A248F3B8C76C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2981325"/>
+          <a:ext cx="1209844" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1129,16 +1393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28E6AC4-EBDD-834A-9043-A3A84BACDC51}">
-  <dimension ref="B3:AK22"/>
+  <dimension ref="B3:AK24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="U13" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:37">
@@ -1152,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>35</v>
@@ -1164,28 +1428,28 @@
         <v>35</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:37" s="2" customFormat="1" ht="31">
+    <row r="4" spans="2:37" s="2" customFormat="1" ht="39.75">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,9 +1612,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:37" ht="18">
+    <row r="6" spans="2:37">
       <c r="N6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>39</v>
@@ -1425,56 +1689,61 @@
         <v>41</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="24:29" ht="20">
+    </row>
+    <row r="17" spans="24:29">
       <c r="Z17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="24:29">
       <c r="Z18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="24:29">
+      <c r="X20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="24:29">
+      <c r="Z21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="24:29" ht="18">
-      <c r="X20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="24:29" ht="18">
-      <c r="Z21" s="1" t="s">
+    </row>
+    <row r="22" spans="24:29">
+      <c r="Z22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="24:29" ht="18">
-      <c r="Z22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>67</v>
+    </row>
+    <row r="24" spans="24:29">
+      <c r="X24" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1484,19 +1753,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233F94B-B5FA-4331-B9B5-60471B8A167C}">
+  <dimension ref="A3:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" ht="39.75">
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>20200520</v>
+      </c>
+      <c r="D7">
+        <v>1498</v>
+      </c>
+      <c r="F7">
+        <v>1560</v>
+      </c>
+      <c r="H7">
+        <v>1494</v>
+      </c>
+      <c r="J7">
+        <v>1550</v>
+      </c>
+      <c r="L7">
+        <v>405145312</v>
+      </c>
+      <c r="N7">
+        <v>26418010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="39.75">
+      <c r="B24" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="D26">
+        <v>1068</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="L27">
+        <v>1050133952</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD18155-0104-DB4F-9523-BD7BE28DDAEC}">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <sheetData>
-    <row r="3" spans="2:9" ht="17" thickBot="1"/>
+    <row r="3" spans="2:9" ht="20.25" thickBot="1"/>
     <row r="4" spans="2:9">
       <c r="B4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1518,7 +1944,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1530,7 +1956,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1542,7 +1968,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1554,7 +1980,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1566,7 +1992,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1578,7 +2004,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1600,7 +2026,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1610,9 +2036,9 @@
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="2:9" ht="26">
+    <row r="14" spans="2:9" ht="25.5">
       <c r="B14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1624,7 +2050,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1634,9 +2060,9 @@
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="2:9" ht="17" thickBot="1">
+    <row r="16" spans="2:9" ht="20.25" thickBot="1">
       <c r="B16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1652,75 +2078,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B3E7B-2533-FD42-A1EF-AB9981AC8FAE}">
   <dimension ref="B4:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="35">
+    <row r="4" spans="2:2" ht="44.25">
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="24">
       <c r="B7" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="21"/>
     </row>
-    <row r="9" spans="2:2" ht="18">
+    <row r="9" spans="2:2">
       <c r="B9" s="22"/>
     </row>
-    <row r="10" spans="2:2" ht="18">
+    <row r="10" spans="2:2">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="2:2" ht="18">
+    <row r="11" spans="2:2">
       <c r="B11" s="21"/>
     </row>
-    <row r="12" spans="2:2" ht="18">
+    <row r="12" spans="2:2">
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="2:2" ht="18">
+    <row r="13" spans="2:2">
       <c r="B13" s="22"/>
     </row>
-    <row r="14" spans="2:2" ht="18">
+    <row r="14" spans="2:2">
       <c r="B14" s="21"/>
     </row>
-    <row r="15" spans="2:2" ht="18">
+    <row r="15" spans="2:2">
       <c r="B15" s="21"/>
     </row>
-    <row r="16" spans="2:2" ht="18">
+    <row r="16" spans="2:2">
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="2:2" ht="18">
+    <row r="17" spans="2:2">
       <c r="B17" s="23"/>
     </row>
-    <row r="18" spans="2:2" ht="30">
+    <row r="18" spans="2:2" ht="28.5">
       <c r="B18" s="25"/>
     </row>
-    <row r="19" spans="2:2" ht="30">
+    <row r="19" spans="2:2" ht="28.5">
       <c r="B19" s="26"/>
     </row>
-    <row r="20" spans="2:2" ht="18">
+    <row r="20" spans="2:2">
       <c r="B20" s="24"/>
     </row>
-    <row r="21" spans="2:2" ht="18">
+    <row r="21" spans="2:2">
       <c r="B21" s="24"/>
     </row>
-    <row r="22" spans="2:2" ht="18">
+    <row r="22" spans="2:2">
       <c r="B22" s="22"/>
     </row>
-    <row r="23" spans="2:2" ht="18">
+    <row r="23" spans="2:2">
       <c r="B23" s="23"/>
     </row>
-    <row r="24" spans="2:2" ht="18">
+    <row r="24" spans="2:2">
       <c r="B24" s="22"/>
     </row>
   </sheetData>
